--- a/medicine/Enfance/Ilkka_Pitkänen/Ilkka_Pitkänen.xlsx
+++ b/medicine/Enfance/Ilkka_Pitkänen/Ilkka_Pitkänen.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Ilkka_Pitk%C3%A4nen</t>
+          <t>Ilkka_Pitkänen</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Ilkka Pitkänen, né le 14 octobre 1949 à Helsinki en Finlande, est un écrivain finlandais, auteur de roman policier et de littérature d'enfance et de jeunesse.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Ilkka_Pitk%C3%A4nen</t>
+          <t>Ilkka_Pitkänen</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,10 +523,12 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">En 1967, il remporte le concours de poésie organisé par la revue littéraire Parnasso.  En 1977, il publie son premier roman, Pasi ja Lennu. 
-Son seul roman traduit en français, Le Rameur (Soutaja), paraît en 1987. Avec ce titre, il est lauréat du prix Kalevi Jäntti en 1988. Selon le Dictionnaire des littératures policières, ce « roman très émouvant révèle avec subtilité la dureté d'une société qui n'offre aucune alternative à ceux qui, dans la mesure où ils n'en acceptent pas les contraintes et vivent dans ses marges, sont totalement impuissants à maîtriser leur destin »[1].
+Son seul roman traduit en français, Le Rameur (Soutaja), paraît en 1987. Avec ce titre, il est lauréat du prix Kalevi Jäntti en 1988. Selon le Dictionnaire des littératures policières, ce « roman très émouvant révèle avec subtilité la dureté d'une société qui n'offre aucune alternative à ceux qui, dans la mesure où ils n'en acceptent pas les contraintes et vivent dans ses marges, sont totalement impuissants à maîtriser leur destin ».
 Il est également l'auteur d’œuvres pour la jeunesse et d'ouvrages photographiques consacrés à la nature illustrés par les photos de son père, Matti A. Pitkänen (fi).
 </t>
         </is>
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Ilkka_Pitk%C3%A4nen</t>
+          <t>Ilkka_Pitkänen</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -546,19 +560,126 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Romans
-Pasi ja Lennu (1977)
+          <t>Romans</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Pasi ja Lennu (1977)
 Kenraali kulkee keskellä (1978)
 Syysmuutto (1982)
 Soutaja, (1987) Publié en français sous le titre Le Rameur, Arles, Actes Sud coll. « Lettres scandinaves » (1995)  (ISBN 2-7427-0534-1)
-Oravanpesä (1991)
-Littérature d'enfance et de jeunesse
-Eläinten talo, (1987)
-Eläinten joulu, (1988)
-Recueil de nouvelles
-Varamies, (1986)
-Autres ouvrages
-Suurkuha, (1972)
+Oravanpesä (1991)</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Ilkka_Pitkänen</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Ilkka_Pitk%C3%A4nen</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Littérature d'enfance et de jeunesse</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Eläinten talo, (1987)
+Eläinten joulu, (1988)</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Ilkka_Pitkänen</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Ilkka_Pitk%C3%A4nen</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Recueil de nouvelles</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Varamies, (1986)</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Ilkka_Pitkänen</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Ilkka_Pitk%C3%A4nen</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Autres ouvrages</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Suurkuha, (1972)
 Merikalastajat (1978)
 Tavallisia ihmisiä (1979)
 Tunski : erään koiran elämä, (1979)
@@ -569,31 +690,33 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Ilkka_Pitk%C3%A4nen</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Ilkka_Pitkänen</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
         <is>
           <t>Portail:Enfance/Articles liés</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Ilkka_Pitk%C3%A4nen</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>Prix et distinctions</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t>Prix Kalevi Jäntti 1988 pour Le Rameur (Soutaja)</t>
         </is>
